--- a/stock_historical_data/1wk/IFCI.NS.xlsx
+++ b/stock_historical_data/1wk/IFCI.NS.xlsx
@@ -61205,7 +61205,9 @@
       <c r="P1146" t="n">
         <v>0</v>
       </c>
-      <c r="Q1146" t="inlineStr"/>
+      <c r="Q1146" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/IFCI.NS.xlsx
+++ b/stock_historical_data/1wk/IFCI.NS.xlsx
@@ -64701,7 +64701,9 @@
       <c r="Q1147" t="n">
         <v>0</v>
       </c>
-      <c r="R1147" t="inlineStr"/>
+      <c r="R1147" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/IFCI.NS.xlsx
+++ b/stock_historical_data/1wk/IFCI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1147"/>
+  <dimension ref="A1:R1149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64705,6 +64705,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>64.79000091552734</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>66.94000244140625</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>61</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>61.18000030517578</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>61.18000030517578</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>100248487</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>60.84999847412109</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>65.30999755859375</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>59</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>61.58000183105469</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>61.58000183105469</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>117018875</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/IFCI.NS.xlsx
+++ b/stock_historical_data/1wk/IFCI.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1149"/>
+  <dimension ref="A1:R1184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -64757,7 +64757,9 @@
       <c r="Q1148" t="n">
         <v>0</v>
       </c>
-      <c r="R1148" t="inlineStr"/>
+      <c r="R1148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
@@ -64811,7 +64813,1829 @@
       <c r="Q1149" t="n">
         <v>0</v>
       </c>
-      <c r="R1149" t="inlineStr"/>
+      <c r="R1149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>62.68999862670898</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>59.34999847412109</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>60.90999984741211</v>
+      </c>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="n">
+        <v>62458533</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>61.5099983215332</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>72</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>69.56999969482422</v>
+      </c>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="n">
+        <v>346758904</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>70.40000152587891</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>78.90000152587891</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>67.80000305175781</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>68.23000335693359</v>
+      </c>
+      <c r="F1152" t="inlineStr"/>
+      <c r="G1152" t="n">
+        <v>336091974</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>67.88999938964844</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>91.40000152587891</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>62.52000045776367</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>83.27999877929688</v>
+      </c>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="n">
+        <v>567728567</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>84.09999847412109</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>90.73999786376953</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>80.02999877929688</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>81.91999816894531</v>
+      </c>
+      <c r="F1154" t="inlineStr"/>
+      <c r="G1154" t="n">
+        <v>274406220</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>77.08000183105469</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>79.88999938964844</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>70.30000305175781</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>70.73000335693359</v>
+      </c>
+      <c r="F1155" t="inlineStr"/>
+      <c r="G1155" t="n">
+        <v>199298456</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>68.11000061035156</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>76.55000305175781</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>68.11000061035156</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>71.63999938964844</v>
+      </c>
+      <c r="F1156" t="inlineStr"/>
+      <c r="G1156" t="n">
+        <v>135111708</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>72.09999847412109</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>74.55000305175781</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>71.05000305175781</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>71.73999786376953</v>
+      </c>
+      <c r="F1157" t="inlineStr"/>
+      <c r="G1157" t="n">
+        <v>87037660</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>72</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>80.83000183105469</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>74.93000030517578</v>
+      </c>
+      <c r="F1158" t="inlineStr"/>
+      <c r="G1158" t="n">
+        <v>224067187</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>74.98999786376953</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>75.75</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>70.31999969482422</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>70.83000183105469</v>
+      </c>
+      <c r="F1159" t="inlineStr"/>
+      <c r="G1159" t="n">
+        <v>72169347</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>70.94000244140625</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>72.09999847412109</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>68.18000030517578</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>70.26999664306641</v>
+      </c>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="n">
+        <v>78511450</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>72.69999694824219</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>75.37999725341797</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>67.90000152587891</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>71.09999847412109</v>
+      </c>
+      <c r="F1161" t="inlineStr"/>
+      <c r="G1161" t="n">
+        <v>122837015</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>71.01000213623047</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>71.66000366210938</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>65.30000305175781</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>67.33999633789062</v>
+      </c>
+      <c r="F1162" t="inlineStr"/>
+      <c r="G1162" t="n">
+        <v>47851660</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>66.98000335693359</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>67.63999938964844</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>59.18000030517578</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="F1163" t="inlineStr"/>
+      <c r="G1163" t="n">
+        <v>32432777</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>62.59999847412109</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>65.69999694824219</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>60.54000091552734</v>
+      </c>
+      <c r="F1164" t="inlineStr"/>
+      <c r="G1164" t="n">
+        <v>45755755</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>61.20999908447266</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>62.20000076293945</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>57.31999969482422</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>59.29000091552734</v>
+      </c>
+      <c r="F1165" t="inlineStr"/>
+      <c r="G1165" t="n">
+        <v>30172925</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>59.09999847412109</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>59.47999954223633</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>50.09000015258789</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>50.97999954223633</v>
+      </c>
+      <c r="F1166" t="inlineStr"/>
+      <c r="G1166" t="n">
+        <v>42157497</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>51.09000015258789</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>59.34000015258789</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>49.72000122070312</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>58.95000076293945</v>
+      </c>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="n">
+        <v>39606209</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1167" t="inlineStr"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>58.91999816894531</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>55.86000061035156</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>61.59000015258789</v>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="n">
+        <v>86032741</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>60.81000137329102</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>67.40000152587891</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>57.09999847412109</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>57.77999877929688</v>
+      </c>
+      <c r="F1169" t="inlineStr"/>
+      <c r="G1169" t="n">
+        <v>88644194</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>57.79999923706055</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>62.72999954223633</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>56.5099983215332</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>58</v>
+      </c>
+      <c r="F1170" t="inlineStr"/>
+      <c r="G1170" t="n">
+        <v>56838656</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>63</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>66.79000091552734</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>61.20000076293945</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>63.86999893188477</v>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="n">
+        <v>108885762</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>63.43999862670898</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>68.40000152587891</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>62.70000076293945</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>67.13999938964844</v>
+      </c>
+      <c r="F1172" t="inlineStr"/>
+      <c r="G1172" t="n">
+        <v>64776908</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>67.01000213623047</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>68.26999664306641</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>61.36000061035156</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>64.01000213623047</v>
+      </c>
+      <c r="F1173" t="inlineStr"/>
+      <c r="G1173" t="n">
+        <v>40276224</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>63.90000152587891</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>65.22000122070312</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>59</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>60.97000122070312</v>
+      </c>
+      <c r="F1174" t="inlineStr"/>
+      <c r="G1174" t="n">
+        <v>45818575</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>62.59999847412109</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>63</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>59.86000061035156</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>60.45999908447266</v>
+      </c>
+      <c r="F1175" t="inlineStr"/>
+      <c r="G1175" t="n">
+        <v>17804435</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>60.15000152587891</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>63.47000122070312</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>58.79999923706055</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>61.36999893188477</v>
+      </c>
+      <c r="F1176" t="inlineStr"/>
+      <c r="G1176" t="n">
+        <v>34776929</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>61.58000183105469</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>62.2400016784668</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>54.09999847412109</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>54.29000091552734</v>
+      </c>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="n">
+        <v>32575522</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>54</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>57.47000122070312</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>51.20000076293945</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>56.0099983215332</v>
+      </c>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="n">
+        <v>54213608</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>56.40000152587891</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>59.38999938964844</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>53.40000152587891</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>53.93999862670898</v>
+      </c>
+      <c r="F1179" t="inlineStr"/>
+      <c r="G1179" t="n">
+        <v>39846474</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>53.47999954223633</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>57.77999877929688</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>50.11999893188477</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>54.04999923706055</v>
+      </c>
+      <c r="F1180" t="inlineStr"/>
+      <c r="G1180" t="n">
+        <v>44975543</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>55.13999938964844</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>51.61000061035156</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>52.91999816894531</v>
+      </c>
+      <c r="F1181" t="inlineStr"/>
+      <c r="G1181" t="n">
+        <v>24540122</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>52.79999923706055</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>52.91999816894531</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>44</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>44.59999847412109</v>
+      </c>
+      <c r="F1182" t="inlineStr"/>
+      <c r="G1182" t="n">
+        <v>44150024</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>44.59999847412109</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>48.93999862670898</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>46.4900016784668</v>
+      </c>
+      <c r="F1183" t="inlineStr"/>
+      <c r="G1183" t="n">
+        <v>50152008</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1183" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1183" t="inlineStr"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>45.70999908447266</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>40.58000183105469</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>41.09000015258789</v>
+      </c>
+      <c r="F1184" t="inlineStr"/>
+      <c r="G1184" t="n">
+        <v>27043668</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1184" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1184" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/IFCI.NS.xlsx
+++ b/stock_historical_data/1wk/IFCI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1184"/>
+  <dimension ref="A1:R1193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64867,7 +64867,9 @@
       <c r="Q1150" t="n">
         <v>0</v>
       </c>
-      <c r="R1150" t="inlineStr"/>
+      <c r="R1150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
@@ -64919,7 +64921,9 @@
       <c r="Q1151" t="n">
         <v>0</v>
       </c>
-      <c r="R1151" t="inlineStr"/>
+      <c r="R1151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
@@ -64971,7 +64975,9 @@
       <c r="Q1152" t="n">
         <v>0</v>
       </c>
-      <c r="R1152" t="inlineStr"/>
+      <c r="R1152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
@@ -65023,7 +65029,9 @@
       <c r="Q1153" t="n">
         <v>0</v>
       </c>
-      <c r="R1153" t="inlineStr"/>
+      <c r="R1153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
@@ -65075,7 +65083,9 @@
       <c r="Q1154" t="n">
         <v>0</v>
       </c>
-      <c r="R1154" t="inlineStr"/>
+      <c r="R1154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
@@ -65127,7 +65137,9 @@
       <c r="Q1155" t="n">
         <v>0</v>
       </c>
-      <c r="R1155" t="inlineStr"/>
+      <c r="R1155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
@@ -65179,7 +65191,9 @@
       <c r="Q1156" t="n">
         <v>0</v>
       </c>
-      <c r="R1156" t="inlineStr"/>
+      <c r="R1156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1157">
       <c r="A1157" s="2" t="n">
@@ -65231,7 +65245,9 @@
       <c r="Q1157" t="n">
         <v>0</v>
       </c>
-      <c r="R1157" t="inlineStr"/>
+      <c r="R1157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1158">
       <c r="A1158" s="2" t="n">
@@ -65283,7 +65299,9 @@
       <c r="Q1158" t="n">
         <v>0</v>
       </c>
-      <c r="R1158" t="inlineStr"/>
+      <c r="R1158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1159">
       <c r="A1159" s="2" t="n">
@@ -65335,7 +65353,9 @@
       <c r="Q1159" t="n">
         <v>2</v>
       </c>
-      <c r="R1159" t="inlineStr"/>
+      <c r="R1159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1160">
       <c r="A1160" s="2" t="n">
@@ -65387,7 +65407,9 @@
       <c r="Q1160" t="n">
         <v>0</v>
       </c>
-      <c r="R1160" t="inlineStr"/>
+      <c r="R1160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1161">
       <c r="A1161" s="2" t="n">
@@ -65439,7 +65461,9 @@
       <c r="Q1161" t="n">
         <v>0</v>
       </c>
-      <c r="R1161" t="inlineStr"/>
+      <c r="R1161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1162">
       <c r="A1162" s="2" t="n">
@@ -65491,7 +65515,9 @@
       <c r="Q1162" t="n">
         <v>0</v>
       </c>
-      <c r="R1162" t="inlineStr"/>
+      <c r="R1162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1163">
       <c r="A1163" s="2" t="n">
@@ -65543,7 +65569,9 @@
       <c r="Q1163" t="n">
         <v>0</v>
       </c>
-      <c r="R1163" t="inlineStr"/>
+      <c r="R1163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1164">
       <c r="A1164" s="2" t="n">
@@ -65595,7 +65623,9 @@
       <c r="Q1164" t="n">
         <v>0</v>
       </c>
-      <c r="R1164" t="inlineStr"/>
+      <c r="R1164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1165">
       <c r="A1165" s="2" t="n">
@@ -65647,7 +65677,9 @@
       <c r="Q1165" t="n">
         <v>0</v>
       </c>
-      <c r="R1165" t="inlineStr"/>
+      <c r="R1165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" s="2" t="n">
@@ -65699,7 +65731,9 @@
       <c r="Q1166" t="n">
         <v>0</v>
       </c>
-      <c r="R1166" t="inlineStr"/>
+      <c r="R1166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1167">
       <c r="A1167" s="2" t="n">
@@ -65751,7 +65785,9 @@
       <c r="Q1167" t="n">
         <v>0</v>
       </c>
-      <c r="R1167" t="inlineStr"/>
+      <c r="R1167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1168">
       <c r="A1168" s="2" t="n">
@@ -65803,7 +65839,9 @@
       <c r="Q1168" t="n">
         <v>0</v>
       </c>
-      <c r="R1168" t="inlineStr"/>
+      <c r="R1168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1169">
       <c r="A1169" s="2" t="n">
@@ -65855,7 +65893,9 @@
       <c r="Q1169" t="n">
         <v>0</v>
       </c>
-      <c r="R1169" t="inlineStr"/>
+      <c r="R1169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1170">
       <c r="A1170" s="2" t="n">
@@ -65907,7 +65947,9 @@
       <c r="Q1170" t="n">
         <v>0</v>
       </c>
-      <c r="R1170" t="inlineStr"/>
+      <c r="R1170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1171">
       <c r="A1171" s="2" t="n">
@@ -65959,7 +66001,9 @@
       <c r="Q1171" t="n">
         <v>0</v>
       </c>
-      <c r="R1171" t="inlineStr"/>
+      <c r="R1171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1172">
       <c r="A1172" s="2" t="n">
@@ -66011,7 +66055,9 @@
       <c r="Q1172" t="n">
         <v>0</v>
       </c>
-      <c r="R1172" t="inlineStr"/>
+      <c r="R1172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1173">
       <c r="A1173" s="2" t="n">
@@ -66063,7 +66109,9 @@
       <c r="Q1173" t="n">
         <v>1</v>
       </c>
-      <c r="R1173" t="inlineStr"/>
+      <c r="R1173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1174">
       <c r="A1174" s="2" t="n">
@@ -66115,7 +66163,9 @@
       <c r="Q1174" t="n">
         <v>2</v>
       </c>
-      <c r="R1174" t="inlineStr"/>
+      <c r="R1174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1175">
       <c r="A1175" s="2" t="n">
@@ -66167,7 +66217,9 @@
       <c r="Q1175" t="n">
         <v>0</v>
       </c>
-      <c r="R1175" t="inlineStr"/>
+      <c r="R1175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" s="2" t="n">
@@ -66219,7 +66271,9 @@
       <c r="Q1176" t="n">
         <v>0</v>
       </c>
-      <c r="R1176" t="inlineStr"/>
+      <c r="R1176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1177">
       <c r="A1177" s="2" t="n">
@@ -66271,7 +66325,9 @@
       <c r="Q1177" t="n">
         <v>0</v>
       </c>
-      <c r="R1177" t="inlineStr"/>
+      <c r="R1177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1178">
       <c r="A1178" s="2" t="n">
@@ -66323,7 +66379,9 @@
       <c r="Q1178" t="n">
         <v>0</v>
       </c>
-      <c r="R1178" t="inlineStr"/>
+      <c r="R1178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1179">
       <c r="A1179" s="2" t="n">
@@ -66375,7 +66433,9 @@
       <c r="Q1179" t="n">
         <v>0</v>
       </c>
-      <c r="R1179" t="inlineStr"/>
+      <c r="R1179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1180">
       <c r="A1180" s="2" t="n">
@@ -66427,7 +66487,9 @@
       <c r="Q1180" t="n">
         <v>0</v>
       </c>
-      <c r="R1180" t="inlineStr"/>
+      <c r="R1180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1181">
       <c r="A1181" s="2" t="n">
@@ -66479,7 +66541,9 @@
       <c r="Q1181" t="n">
         <v>0</v>
       </c>
-      <c r="R1181" t="inlineStr"/>
+      <c r="R1181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1182">
       <c r="A1182" s="2" t="n">
@@ -66531,7 +66595,9 @@
       <c r="Q1182" t="n">
         <v>0</v>
       </c>
-      <c r="R1182" t="inlineStr"/>
+      <c r="R1182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1183">
       <c r="A1183" s="2" t="n">
@@ -66583,7 +66649,9 @@
       <c r="Q1183" t="n">
         <v>0</v>
       </c>
-      <c r="R1183" t="inlineStr"/>
+      <c r="R1183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1184">
       <c r="A1184" s="2" t="n">
@@ -66635,7 +66703,477 @@
       <c r="Q1184" t="n">
         <v>0</v>
       </c>
-      <c r="R1184" t="inlineStr"/>
+      <c r="R1184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>41.70000076293945</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>45.29999923706055</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>38.81000137329102</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>44.43999862670898</v>
+      </c>
+      <c r="F1185" t="inlineStr"/>
+      <c r="G1185" t="n">
+        <v>42571092</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1185" t="inlineStr"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>44.4900016784668</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>45.15000152587891</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>40.52999877929688</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>40.70000076293945</v>
+      </c>
+      <c r="F1186" t="inlineStr"/>
+      <c r="G1186" t="n">
+        <v>32216483</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1186" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1186" t="inlineStr"/>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>40.84000015258789</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>46.2400016784668</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>40.06999969482422</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>45.29999923706055</v>
+      </c>
+      <c r="F1187" t="inlineStr"/>
+      <c r="G1187" t="n">
+        <v>32997072</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1187" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1187" t="inlineStr"/>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>45.90000152587891</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>46.79000091552734</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>42.29999923706055</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>43.06999969482422</v>
+      </c>
+      <c r="F1188" t="inlineStr"/>
+      <c r="G1188" t="n">
+        <v>43450589</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1188" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1188" t="inlineStr"/>
+    </row>
+    <row r="1189">
+      <c r="A1189" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1189" t="n">
+        <v>43.06999969482422</v>
+      </c>
+      <c r="C1189" t="n">
+        <v>45.47000122070312</v>
+      </c>
+      <c r="D1189" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="E1189" t="n">
+        <v>43.11000061035156</v>
+      </c>
+      <c r="F1189" t="inlineStr"/>
+      <c r="G1189" t="n">
+        <v>26490345</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1189" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1189" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1189" t="inlineStr"/>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1190" t="n">
+        <v>36.20000076293945</v>
+      </c>
+      <c r="C1190" t="n">
+        <v>43.79000091552734</v>
+      </c>
+      <c r="D1190" t="n">
+        <v>36.20000076293945</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>40.54999923706055</v>
+      </c>
+      <c r="F1190" t="inlineStr"/>
+      <c r="G1190" t="n">
+        <v>27217419</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1190" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1190" t="inlineStr"/>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1191" t="n">
+        <v>41.36000061035156</v>
+      </c>
+      <c r="C1191" t="n">
+        <v>44.90000152587891</v>
+      </c>
+      <c r="D1191" t="n">
+        <v>41.04999923706055</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>43.77000045776367</v>
+      </c>
+      <c r="F1191" t="inlineStr"/>
+      <c r="G1191" t="n">
+        <v>18729709</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1191" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1191" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1191" t="inlineStr"/>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1192" t="n">
+        <v>43.77000045776367</v>
+      </c>
+      <c r="C1192" t="n">
+        <v>47.61000061035156</v>
+      </c>
+      <c r="D1192" t="n">
+        <v>43.15000152587891</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>43.63000106811523</v>
+      </c>
+      <c r="F1192" t="inlineStr"/>
+      <c r="G1192" t="n">
+        <v>38436912</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1192" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1192" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1192" t="inlineStr"/>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1193" t="n">
+        <v>43.45000076293945</v>
+      </c>
+      <c r="C1193" t="n">
+        <v>44.9900016784668</v>
+      </c>
+      <c r="D1193" t="n">
+        <v>42</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>42.27000045776367</v>
+      </c>
+      <c r="F1193" t="inlineStr"/>
+      <c r="G1193" t="n">
+        <v>11821405</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1193" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1193" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1193" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
